--- a/PlanDelete/plandel.xlsx
+++ b/PlanDelete/plandel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\playground\PlanDelete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D351CB62-0A70-4B2C-B72F-7DEF9D23F6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9560E0-9121-4F8A-8F56-2FEE9CF4C7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,832 +346,855 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A164"/>
+  <dimension ref="A1:A168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection sqref="A1:A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>4018754</v>
+        <v>4461026</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4084692</v>
+        <v>4461096</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4131748</v>
+        <v>4488125</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4059484</v>
+        <v>4527818</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4083880</v>
+        <v>4460840</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4059250</v>
+        <v>4527820</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4505032</v>
+        <v>4527822</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4085266</v>
+        <v>4461028</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>4109532</v>
+        <v>4461094</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>4085358</v>
+        <v>4534279</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4130620</v>
+        <v>4527816</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4085016</v>
+        <v>4514428</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>4130300</v>
+        <v>4514430</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>4084658</v>
+        <v>4514426</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4505106</v>
+        <v>4514432</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3993268</v>
+        <v>4461324</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>4130836</v>
+        <v>4460968</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>4085272</v>
+        <v>4488121</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>4107864</v>
+        <v>4488119</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4110448</v>
+        <v>4460834</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>4131844</v>
+        <v>4460836</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>3983088</v>
+        <v>4460838</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>4084920</v>
+        <v>4460966</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>4056008</v>
+        <v>4461030</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>4109718</v>
+        <v>4461014</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>3983082</v>
+        <v>4461016</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>4108974</v>
+        <v>4461042</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>4131872</v>
+        <v>4461018</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>4109394</v>
+        <v>4461040</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>4057588</v>
+        <v>4461020</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>3981794</v>
+        <v>4461062</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>4087654</v>
+        <v>4461056</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>3993322</v>
+        <v>4461058</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>4131996</v>
+        <v>4461070</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>4131566</v>
+        <v>4461074</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>4111196</v>
+        <v>4461302</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>4004640</v>
+        <v>4461022</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>4108092</v>
+        <v>4461306</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>4084812</v>
+        <v>4461304</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>4085130</v>
+        <v>4461024</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>4130732</v>
+        <v>4461048</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>4130760</v>
+        <v>4461050</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>4056542</v>
+        <v>4461052</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>4057614</v>
+        <v>4461046</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>4101810</v>
+        <v>4488141</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>4059528</v>
+        <v>4461080</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>4085298</v>
+        <v>4461316</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>4057528</v>
+        <v>4461310</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>4058308</v>
+        <v>4461312</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>4053238</v>
+        <v>4461118</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>4058938</v>
+        <v>4461112</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>4057306</v>
+        <v>4534281</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>4110794</v>
+        <v>4461032</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>4057706</v>
+        <v>4461332</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>4109174</v>
+        <v>4461034</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>4130384</v>
+        <v>4461110</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>4130512</v>
+        <v>4461072</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>4090190</v>
+        <v>4461114</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>4084760</v>
+        <v>4461116</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>4131078</v>
+        <v>4461104</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>4101744</v>
+        <v>4488185</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>4505020</v>
+        <v>4488187</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>4087648</v>
+        <v>4488183</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>4109756</v>
+        <v>4488189</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>4110474</v>
+        <v>4488135</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>3962864</v>
+        <v>4488113</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>4085352</v>
+        <v>4488111</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>4130644</v>
+        <v>4488115</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>4108544</v>
+        <v>4488103</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>4131572</v>
+        <v>4488117</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>4057550</v>
+        <v>4488105</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>4059496</v>
+        <v>4488107</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>4109824</v>
+        <v>4488109</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>4356893</v>
+        <v>4488127</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>4131638</v>
+        <v>4488131</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>4083392</v>
+        <v>4488129</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>4130708</v>
+        <v>4488139</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>4084852</v>
+        <v>4488137</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>4130922</v>
+        <v>4488133</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>4056434</v>
+        <v>4513802</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>4131680</v>
+        <v>4488759</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>4131802</v>
+        <v>4488761</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>4085304</v>
+        <v>4488763</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>3993366</v>
+        <v>4488767</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>4131938</v>
+        <v>4488765</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>4130860</v>
+        <v>4488751</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>4087110</v>
+        <v>4488753</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>4084806</v>
+        <v>4488773</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>4130360</v>
+        <v>4488769</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>4131808</v>
+        <v>4488755</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>4131644</v>
+        <v>4488771</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>4019670</v>
+        <v>4488757</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>4130814</v>
+        <v>4513804</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>4084652</v>
+        <v>4513806</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>4108136</v>
+        <v>4513808</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>4058856</v>
+        <v>4516770</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>4056298</v>
+        <v>4516174</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>4130788</v>
+        <v>4516180</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>4085062</v>
+        <v>4516176</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>4131838</v>
+        <v>4516178</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>4130676</v>
+        <v>4516772</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>4131742</v>
+        <v>4516776</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>4084602</v>
+        <v>4516774</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>4132054</v>
+        <v>4521058</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>4131878</v>
+        <v>4520022</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>4110438</v>
+        <v>4520026</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>4084766</v>
+        <v>4520024</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>4059458</v>
+        <v>4520028</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>4058954</v>
+        <v>4521060</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>4358096</v>
+        <v>4521054</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>4090202</v>
+        <v>4521056</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>4083408</v>
+        <v>4528372</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>4131124</v>
+        <v>4523016</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>4084914</v>
+        <v>4523018</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>4058554</v>
+        <v>4523012</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>4058590</v>
+        <v>4523014</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>4130544</v>
+        <v>4528376</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>4109006</v>
+        <v>4528374</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>4058910</v>
+        <v>4528378</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>4131046</v>
+        <v>4461100</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>4053234</v>
+        <v>4528480</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>4085212</v>
+        <v>4528478</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>4085218</v>
+        <v>4528474</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>4505058</v>
+        <v>4528476</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>4084698</v>
+        <v>4488123</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>4132060</v>
+        <v>4534278</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>4058518</v>
+        <v>4534277</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>4131932</v>
+        <v>4534280</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>4108568</v>
+        <v>4534275</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>4085124</v>
+        <v>4461038</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>4109182</v>
+        <v>4461098</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>4090602</v>
+        <v>4460972</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>4107618</v>
+        <v>4461076</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>4083912</v>
+        <v>4534276</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>4085022</v>
+        <v>4461064</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>4058290</v>
+        <v>4461068</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>4053246</v>
+        <v>4461036</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>4111120</v>
+        <v>4461054</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>4130434</v>
+        <v>4461006</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>4109678</v>
+        <v>4461120</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>4505066</v>
+        <v>4461308</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>4130898</v>
+        <v>4461328</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>4111220</v>
+        <v>4461082</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>4108852</v>
+        <v>4461008</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>4085056</v>
+        <v>4460970</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>4109494</v>
+        <v>4461012</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>4084596</v>
+        <v>4461044</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>4130276</v>
+        <v>4461010</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>4131990</v>
+        <v>4461078</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>4057466</v>
+        <v>4461314</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>4131674</v>
+        <v>4461108</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>4505148</v>
+        <v>4461318</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>4100926</v>
+        <v>4461066</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>4101714</v>
+        <v>4461060</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>4130598</v>
+        <v>4461326</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>3993292</v>
+        <v>4461084</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>4059286</v>
+        <v>4461106</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>4504976</v>
+        <v>4461322</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>4108618</v>
+        <v>4461092</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>4103946</v>
+        <v>4534274</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>4488777</v>
+        <v>4461102</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>4504964</v>
+        <v>4461122</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>3993332</v>
+        <v>4461320</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>4084846</v>
+        <v>4461124</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>4461086</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>4461090</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>4461088</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>4461330</v>
       </c>
     </row>
   </sheetData>

--- a/PlanDelete/plandel.xlsx
+++ b/PlanDelete/plandel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\playground\PlanDelete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9560E0-9121-4F8A-8F56-2FEE9CF4C7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8054EB94-50B5-405E-B57F-D458A345AE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,10 +346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A168"/>
+  <dimension ref="A1:A116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection sqref="A1:A168"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -359,842 +359,582 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>4461026</v>
+        <v>5093359</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4461096</v>
+        <v>5092330</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4488125</v>
+        <v>5092331</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4527818</v>
+        <v>5092332</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4460840</v>
+        <v>5092333</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4527820</v>
+        <v>5092995</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4527822</v>
+        <v>5092996</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4461028</v>
+        <v>5092997</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>4461094</v>
+        <v>5092998</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>4534279</v>
+        <v>5093358</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4527816</v>
+        <v>5093360</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4514428</v>
+        <v>5093357</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>4514430</v>
+        <v>5097520</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>4514426</v>
+        <v>5097239</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4514432</v>
+        <v>5097240</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>4461324</v>
+        <v>5097241</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>4460968</v>
+        <v>5097242</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>4488121</v>
+        <v>5097521</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>4488119</v>
+        <v>5097522</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4460834</v>
+        <v>5097523</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>4460836</v>
+        <v>5098145</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>4460838</v>
+        <v>5097872</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>4460966</v>
+        <v>5097873</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>4461030</v>
+        <v>5097874</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>4461014</v>
+        <v>5097875</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>4461016</v>
+        <v>5098457</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>4461042</v>
+        <v>5098146</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>4461018</v>
+        <v>5098147</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>4461040</v>
+        <v>5098148</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>4461020</v>
+        <v>5098458</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>4461062</v>
+        <v>5098459</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>4461056</v>
+        <v>5098460</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>4461058</v>
+        <v>5098842</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>4461070</v>
+        <v>5098843</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>4461074</v>
+        <v>5098844</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>4461302</v>
+        <v>5098845</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>4461022</v>
+        <v>5104350</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>4461306</v>
+        <v>5104351</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>4461304</v>
+        <v>5104352</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>4461024</v>
+        <v>5104353</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>4461048</v>
+        <v>5091526</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>4461050</v>
+        <v>5091527</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>4461052</v>
+        <v>5091528</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>4461046</v>
+        <v>5091529</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>4488141</v>
+        <v>5100651</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>4461080</v>
+        <v>5100652</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>4461316</v>
+        <v>5100653</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>4461310</v>
+        <v>5100654</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>4461312</v>
+        <v>5091684</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>4461118</v>
+        <v>5091685</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>4461112</v>
+        <v>5091686</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>4534281</v>
+        <v>5091687</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>4461032</v>
+        <v>5101206</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>4461332</v>
+        <v>5099938</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>4461034</v>
+        <v>5099939</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>4461110</v>
+        <v>5099940</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>4461072</v>
+        <v>5099941</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>4461114</v>
+        <v>5101207</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>4461116</v>
+        <v>5101208</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>4461104</v>
+        <v>5092060</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>4488185</v>
+        <v>5092061</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>4488187</v>
+        <v>5092062</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>4488183</v>
+        <v>5092063</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>4488189</v>
+        <v>5102758</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>4488135</v>
+        <v>5102759</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>4488113</v>
+        <v>5102760</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>4488111</v>
+        <v>5102761</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>4488115</v>
+        <v>5103289</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>4488103</v>
+        <v>5103290</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>4488117</v>
+        <v>5103291</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>4488105</v>
+        <v>5101209</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>4488107</v>
+        <v>5092617</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>4488109</v>
+        <v>5092618</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>4488127</v>
+        <v>5092619</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>4488131</v>
+        <v>5092620</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>4488129</v>
+        <v>5103292</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>4488139</v>
+        <v>5102303</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>4488137</v>
+        <v>5102304</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>4488133</v>
+        <v>5102305</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>4513802</v>
+        <v>5102306</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>4488759</v>
+        <v>5104117</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>4488761</v>
+        <v>5093724</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>4488763</v>
+        <v>5093725</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>4488767</v>
+        <v>5093726</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>4488765</v>
+        <v>5093727</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>4488751</v>
+        <v>5095115</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>4488753</v>
+        <v>5094014</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>4488773</v>
+        <v>5094015</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>4488769</v>
+        <v>5094016</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>4488755</v>
+        <v>5094017</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>4488771</v>
+        <v>5104114</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>4488757</v>
+        <v>5104115</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>4513804</v>
+        <v>5104116</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>4513806</v>
+        <v>5095116</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>4513808</v>
+        <v>5095117</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>4516770</v>
+        <v>5095118</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>4516174</v>
+        <v>5095790</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>4516180</v>
+        <v>5095376</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>4516176</v>
+        <v>5095377</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>4516178</v>
+        <v>5095378</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>4516772</v>
+        <v>5095379</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>4516776</v>
+        <v>5095791</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>4516774</v>
+        <v>5095792</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>4521058</v>
+        <v>5095793</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>4520022</v>
+        <v>4845261</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>4520026</v>
+        <v>5099329</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>4520024</v>
+        <v>5099330</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>4520028</v>
+        <v>5099331</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>4521060</v>
+        <v>5099332</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>4521054</v>
+        <v>5100319</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>4521056</v>
+        <v>5100318</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>4528372</v>
+        <v>5100320</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>4523016</v>
+        <v>5100321</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>4523018</v>
+        <v>4845259</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>4523012</v>
+        <v>4845260</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>4523014</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>4528376</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>4528374</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>4528378</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>4461100</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>4528480</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>4528478</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>4528474</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>4528476</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>4488123</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>4534278</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>4534277</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>4534280</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>4534275</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>4461038</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>4461098</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>4460972</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>4461076</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>4534276</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>4461064</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>4461068</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>4461036</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>4461054</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>4461006</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>4461120</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>4461308</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>4461328</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>4461082</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>4461008</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>4460970</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>4461012</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>4461044</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>4461010</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>4461078</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>4461314</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>4461108</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>4461318</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>4461066</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>4461060</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>4461326</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>4461084</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>4461106</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>4461322</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>4461092</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>4534274</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>4461102</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>4461122</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>4461320</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>4461124</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>4461086</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>4461090</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>4461088</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>4461330</v>
+        <v>4845262</v>
       </c>
     </row>
   </sheetData>

--- a/PlanDelete/plandel.xlsx
+++ b/PlanDelete/plandel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\playground\PlanDelete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8054EB94-50B5-405E-B57F-D458A345AE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46CCB8B-81EA-4BB1-9D3B-FC77A74FB1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9750" yWindow="2505" windowWidth="11385" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -346,10 +346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A116"/>
+  <dimension ref="A1:A125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -359,582 +359,627 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>5093359</v>
+        <v>5168466</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5092330</v>
+        <v>5168277</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5092331</v>
+        <v>5168278</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5092332</v>
+        <v>5168285</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5092333</v>
+        <v>5168286</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5092995</v>
+        <v>5168274</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5092996</v>
+        <v>5168401</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5092997</v>
+        <v>5168370</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5092998</v>
+        <v>5168407</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5093358</v>
+        <v>5168402</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5093360</v>
+        <v>5168365</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5093357</v>
+        <v>5168366</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5097520</v>
+        <v>5168420</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5097239</v>
+        <v>5168371</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5097240</v>
+        <v>5168376</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>5097241</v>
+        <v>5168378</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5097242</v>
+        <v>5168294</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>5097521</v>
+        <v>5168297</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>5097522</v>
+        <v>5168298</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>5097523</v>
+        <v>5168353</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>5098145</v>
+        <v>5168355</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>5097872</v>
+        <v>5168325</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>5097873</v>
+        <v>5168362</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>5097874</v>
+        <v>5168360</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>5097875</v>
+        <v>5168326</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>5098457</v>
+        <v>5168482</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>5098146</v>
+        <v>5168484</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>5098147</v>
+        <v>5168512</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>5098148</v>
+        <v>5168513</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>5098458</v>
+        <v>5168474</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>5098459</v>
+        <v>5168476</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>5098460</v>
+        <v>5168504</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>5098842</v>
+        <v>5168521</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>5098843</v>
+        <v>5168514</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>5098844</v>
+        <v>5168492</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>5098845</v>
+        <v>5168497</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>5104350</v>
+        <v>5168499</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>5104351</v>
+        <v>5168503</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>5104352</v>
+        <v>5168528</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>5104353</v>
+        <v>5168520</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>5091526</v>
+        <v>5168526</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>5091527</v>
+        <v>5168518</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>5091528</v>
+        <v>5168483</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>5091529</v>
+        <v>5168465</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>5100651</v>
+        <v>5168434</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>5100652</v>
+        <v>5168372</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>5100653</v>
+        <v>5168405</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>5100654</v>
+        <v>5168385</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>5091684</v>
+        <v>5168433</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>5091685</v>
+        <v>5168354</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>5091686</v>
+        <v>5168397</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>5091687</v>
+        <v>5168398</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>5101206</v>
+        <v>5168416</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>5099938</v>
+        <v>5168417</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>5099939</v>
+        <v>5168427</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>5099940</v>
+        <v>5168429</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>5099941</v>
+        <v>5168305</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>5101207</v>
+        <v>5168289</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>5101208</v>
+        <v>5168306</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>5092060</v>
+        <v>5168317</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>5092061</v>
+        <v>5168268</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>5092062</v>
+        <v>5168270</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>5092063</v>
+        <v>5168322</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>5102758</v>
+        <v>5168329</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>5102759</v>
+        <v>5168461</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>5102760</v>
+        <v>5168330</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>5102761</v>
+        <v>5168463</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>5103289</v>
+        <v>5168337</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>5103290</v>
+        <v>5168338</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>5103291</v>
+        <v>5168318</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>5101209</v>
+        <v>5168321</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>5092617</v>
+        <v>5168448</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>5092618</v>
+        <v>5168450</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>5092619</v>
+        <v>5168454</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>5092620</v>
+        <v>5168455</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>5103292</v>
+        <v>5168345</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>5102303</v>
+        <v>5168346</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>5102304</v>
+        <v>5168349</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>5102305</v>
+        <v>5168350</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>5102306</v>
+        <v>5168460</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>5104117</v>
+        <v>5168438</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>5093724</v>
+        <v>5168302</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>5093725</v>
+        <v>5168290</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>5093726</v>
+        <v>5168301</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>5093727</v>
+        <v>5168310</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>5095115</v>
+        <v>5168341</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>5094014</v>
+        <v>5168469</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>5094015</v>
+        <v>5168426</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>5094016</v>
+        <v>5168428</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>5094017</v>
+        <v>5168442</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>5104114</v>
+        <v>5168443</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>5104115</v>
+        <v>5168449</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>5104116</v>
+        <v>5168456</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>5095116</v>
+        <v>5168491</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>5095117</v>
+        <v>5168493</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>5095118</v>
+        <v>5168507</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>5095790</v>
+        <v>5168508</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>5095376</v>
+        <v>5168273</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>5095377</v>
+        <v>5168313</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>5095378</v>
+        <v>5168391</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>5095379</v>
+        <v>5168393</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>5095791</v>
+        <v>5168314</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>5095792</v>
+        <v>5168271</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>5095793</v>
+        <v>5168384</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>4845261</v>
+        <v>5168269</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>5099329</v>
+        <v>5168439</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>5099330</v>
+        <v>5168470</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>5099331</v>
+        <v>5168386</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>5099332</v>
+        <v>5168281</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>5100319</v>
+        <v>5168406</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>5100318</v>
+        <v>5168411</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>5100320</v>
+        <v>5168356</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>5100321</v>
+        <v>5168529</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>4845259</v>
+        <v>5168387</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>4845260</v>
+        <v>5168485</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>4845262</v>
+        <v>5168379</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>5168309</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>5168527</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>5168342</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>5168413</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>5168334</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>5168477</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>5168490</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>5168422</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>5168333</v>
       </c>
     </row>
   </sheetData>

--- a/PlanDelete/plandel.xlsx
+++ b/PlanDelete/plandel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\playground\PlanDelete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46CCB8B-81EA-4BB1-9D3B-FC77A74FB1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F262B41A-FFCD-420C-93BD-68FDA8A419B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="2505" windowWidth="11385" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -346,640 +346,352 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A125"/>
+  <dimension ref="A1:A68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A125"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>5168466</v>
+        <v>5159809</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5168277</v>
+        <v>5159810</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5168278</v>
+        <v>5159811</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5168285</v>
+        <v>5159823</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5168286</v>
+        <v>5159833</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5168274</v>
+        <v>5159832</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5168401</v>
+        <v>5159834</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5168370</v>
+        <v>5159835</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5168407</v>
+        <v>5159844</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5168402</v>
+        <v>5159845</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5168365</v>
+        <v>5159846</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5168366</v>
+        <v>5159847</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5168420</v>
+        <v>5160038</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5168371</v>
+        <v>5160039</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5168376</v>
+        <v>5160040</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>5168378</v>
+        <v>5160041</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5168294</v>
+        <v>5161464</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>5168297</v>
+        <v>5154052</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>5168298</v>
+        <v>5141108</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>5168353</v>
+        <v>5141109</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>5168355</v>
+        <v>5141110</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>5168325</v>
+        <v>5141111</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>5168362</v>
+        <v>5141084</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>5168360</v>
+        <v>5141085</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>5168326</v>
+        <v>5141086</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>5168482</v>
+        <v>5141087</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>5168484</v>
+        <v>5154028</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>5168512</v>
+        <v>5154029</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>5168513</v>
+        <v>5154030</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>5168474</v>
+        <v>5154031</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>5168476</v>
+        <v>5154040</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>5168504</v>
+        <v>5154041</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>5168521</v>
+        <v>5154042</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>5168514</v>
+        <v>5154043</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>5168492</v>
+        <v>5141120</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>5168497</v>
+        <v>5141121</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>5168499</v>
+        <v>5141122</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>5168503</v>
+        <v>5141123</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>5168528</v>
+        <v>5141096</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>5168520</v>
+        <v>5141097</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>5168526</v>
+        <v>5141098</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>5168518</v>
+        <v>5141099</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>5168483</v>
+        <v>5154053</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>5168465</v>
+        <v>5154054</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>5168434</v>
+        <v>5154055</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>5168372</v>
+        <v>5168852</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>5168405</v>
+        <v>5168853</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>5168385</v>
+        <v>5168854</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>5168433</v>
+        <v>5169264</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>5168354</v>
+        <v>5169265</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>5168397</v>
+        <v>5169266</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>5168398</v>
+        <v>5169267</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>5168416</v>
+        <v>5169276</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>5168417</v>
+        <v>5169277</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>5168427</v>
+        <v>5169278</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>5168429</v>
+        <v>5169279</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>5168305</v>
+        <v>5168855</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>5168289</v>
+        <v>5159802</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>5168306</v>
+        <v>5161461</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>5168317</v>
+        <v>5161462</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>5168268</v>
+        <v>5161463</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>5168270</v>
+        <v>5161473</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>5168322</v>
+        <v>5161474</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>5168329</v>
+        <v>5161475</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>5168461</v>
+        <v>5161476</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>5168330</v>
+        <v>5159820</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>5168463</v>
+        <v>5159821</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>5168337</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>5168338</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>5168318</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>5168321</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>5168448</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>5168450</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>5168454</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>5168455</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>5168345</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>5168346</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>5168349</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>5168350</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>5168460</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>5168438</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>5168302</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>5168290</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>5168301</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>5168310</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>5168341</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>5168469</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>5168426</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>5168428</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>5168442</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>5168443</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>5168449</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>5168456</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>5168491</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>5168493</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>5168507</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>5168508</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>5168273</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>5168313</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>5168391</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>5168393</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>5168314</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>5168271</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>5168384</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>5168269</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>5168439</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>5168470</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>5168386</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>5168281</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>5168406</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>5168411</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>5168356</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>5168529</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>5168387</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>5168485</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>5168379</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>5168309</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>5168527</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>5168342</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>5168413</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>5168334</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>5168477</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>5168490</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>5168422</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>5168333</v>
+        <v>5159822</v>
       </c>
     </row>
   </sheetData>
